--- a/data/outputs/能源化工元源数据文件/6BioEnergy Research.xlsx
+++ b/data/outputs/能源化工元源数据文件/6BioEnergy Research.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ170"/>
+  <dimension ref="A1:BR170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,9 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="n">
+        <v>4974540</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1142,9 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="n">
+        <v>8598288</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1362,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1580,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1798,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2002,6 +2016,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2219,6 +2234,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2428,6 +2444,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2629,6 +2646,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2838,6 +2856,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3051,6 +3070,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3268,6 +3288,9 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="n">
+        <v>3923062</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3489,6 +3512,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3706,6 +3730,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3923,6 +3948,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4140,6 +4166,9 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="n">
+        <v>3972016</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4357,6 +4386,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4578,6 +4608,9 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="n">
+        <v>4056357</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4787,6 +4820,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5004,6 +5038,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5221,6 +5256,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5430,6 +5466,9 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="n">
+        <v>4096990</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5639,6 +5678,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5856,6 +5896,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6065,6 +6106,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6282,6 +6324,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6495,6 +6538,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6696,6 +6740,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6905,6 +6950,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7118,6 +7164,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7335,6 +7382,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7548,6 +7596,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7765,6 +7814,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7982,6 +8032,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8199,6 +8250,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8416,6 +8468,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8633,6 +8686,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8850,6 +8904,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9067,6 +9122,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9276,6 +9332,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9489,6 +9546,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9706,6 +9764,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9792,7 +9851,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Rabelo, Sarita C/0000-0002-3153-7674; </t>
+          <t>Rabelo, Sarita C/0000-0002-3153-7674;</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -9923,6 +9982,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10132,6 +10192,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10349,6 +10410,9 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="n">
+        <v>4260690</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10566,6 +10630,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10783,6 +10848,9 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="n">
+        <v>4813165</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11004,6 +11072,9 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="n">
+        <v>4523053</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11221,6 +11292,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11438,6 +11510,9 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="n">
+        <v>5616404</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11655,6 +11730,9 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="n">
+        <v>5616392</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11876,6 +11954,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12097,6 +12176,9 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="n">
+        <v>3728251</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12310,6 +12392,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12531,6 +12614,9 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="n">
+        <v>4571964</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12748,6 +12834,9 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="n">
+        <v>4038393</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12965,6 +13054,9 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="n">
+        <v>4045903</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13182,6 +13274,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13391,6 +13484,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13608,6 +13702,9 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="n">
+        <v>3939880</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13829,6 +13926,9 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="n">
+        <v>3918821</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14052,6 +14152,9 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="n">
+        <v>10846321</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14265,6 +14368,9 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="n">
+        <v>63689716</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14470,6 +14576,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14679,6 +14786,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14896,6 +15004,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15105,6 +15214,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15322,6 +15432,9 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="n">
+        <v>3062829</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15523,6 +15636,9 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="n">
+        <v>35181829</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15724,6 +15840,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15941,6 +16058,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16154,6 +16272,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16363,6 +16482,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16580,6 +16700,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16797,6 +16918,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17014,6 +17136,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17231,6 +17354,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17440,6 +17564,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17653,6 +17778,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17870,6 +17996,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18083,6 +18210,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18292,6 +18420,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18513,6 +18642,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18730,6 +18860,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18939,6 +19070,9 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="n">
+        <v>35478335</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19156,6 +19290,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19373,6 +19508,9 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="n">
+        <v>6180230</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19582,6 +19720,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19791,6 +19930,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20000,6 +20140,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20213,6 +20354,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20410,6 +20552,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20627,6 +20770,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20848,6 +20992,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21069,6 +21214,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21286,6 +21432,9 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="n">
+        <v>3544743</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21503,6 +21652,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21712,6 +21862,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21929,6 +22080,9 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="n">
+        <v>2652869</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22138,6 +22292,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22355,6 +22510,9 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="n">
+        <v>2773917</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22564,6 +22722,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22773,6 +22932,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22990,6 +23150,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23203,6 +23364,9 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="n">
+        <v>5616370</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23412,6 +23576,9 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="n">
+        <v>2562298</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23625,6 +23792,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23834,6 +24002,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24051,6 +24220,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24272,6 +24442,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24477,6 +24648,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24694,6 +24866,9 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="n">
+        <v>4414124</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24911,6 +25086,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25116,6 +25292,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25321,6 +25498,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25538,6 +25716,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25624,7 +25803,7 @@
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>Barbosa-Dekker, Aneli/0000-0002-2339-8985; </t>
+          <t>Barbosa-Dekker, Aneli/0000-0002-2339-8985;</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
@@ -25755,6 +25934,9 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="n">
+        <v>6190855</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25956,6 +26138,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26173,6 +26356,9 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="n">
+        <v>2918728</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26390,6 +26576,9 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="n">
+        <v>2893322</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26607,6 +26796,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26820,6 +27010,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27037,6 +27228,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27250,6 +27442,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27467,6 +27660,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27680,6 +27874,9 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="n">
+        <v>2918527</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27889,6 +28086,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28098,6 +28296,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28311,6 +28510,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28524,6 +28724,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28745,6 +28946,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28958,6 +29160,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29175,6 +29378,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29384,6 +29588,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29593,6 +29798,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29810,6 +30016,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30031,6 +30238,9 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="n">
+        <v>2647752</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30244,6 +30454,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30465,6 +30676,9 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="n">
+        <v>2589747</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30666,6 +30880,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30883,6 +31098,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31096,6 +31312,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31305,6 +31522,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31514,6 +31732,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31723,6 +31942,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31944,6 +32164,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32165,6 +32386,9 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="n">
+        <v>2647311</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32382,6 +32606,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32591,6 +32816,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32804,6 +33030,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33021,6 +33248,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33238,6 +33466,9 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="n">
+        <v>2676702</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33459,6 +33690,9 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="n">
+        <v>16062754</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33668,6 +33902,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33877,6 +34112,9 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="n">
+        <v>47880987</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34090,6 +34328,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34307,6 +34546,9 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="n">
+        <v>3907652</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34520,6 +34762,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34733,6 +34976,9 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="n">
+        <v>3845436</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34950,6 +35196,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35167,6 +35414,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35376,6 +35624,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35585,6 +35834,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35798,6 +36048,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36011,6 +36262,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36228,6 +36480,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36445,6 +36698,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36654,6 +36908,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36867,6 +37122,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
